--- a/src/test/resources/testcase/testcase.xlsx
+++ b/src/test/resources/testcase/testcase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>账号</t>
   </si>
@@ -29,28 +29,19 @@
     <t>错误提示</t>
   </si>
   <si>
-    <t>账号错误</t>
+    <t>账号不存在!</t>
   </si>
   <si>
-    <t>不存在此号</t>
-  </si>
-  <si>
-    <t>输入正确</t>
-  </si>
-  <si>
-    <t>输入错误</t>
+    <t>密码错误!</t>
   </si>
   <si>
     <t>验证码错误</t>
   </si>
   <si>
-    <t>密码错误</t>
+    <t>147258036931</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>no7.space8888</t>
+    <t>账号格式不匹配!</t>
   </si>
 </sst>
 </file>
@@ -59,11 +50,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +63,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -80,6 +77,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -87,6 +91,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -95,32 +128,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,13 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,55 +189,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,181 +222,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,17 +416,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,15 +436,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,11 +457,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,16 +483,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,138 +533,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,15 +992,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.625"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1016,86 +1020,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>13800008888</v>
+        <v>14725803692</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2">
-        <v>4567</v>
-      </c>
-      <c r="D2" t="s">
+        <v>8888</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>13800008889</v>
+        <v>14725803693</v>
       </c>
       <c r="B3">
         <v>123457</v>
       </c>
       <c r="C3">
-        <v>4568</v>
-      </c>
-      <c r="D3" t="s">
+        <v>8888</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>13800008890</v>
+        <v>14725803693</v>
       </c>
       <c r="B4">
-        <v>123458</v>
+        <v>123456</v>
       </c>
       <c r="C4">
-        <v>4569</v>
-      </c>
-      <c r="D4" t="s">
+        <v>8852</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>13800008891</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>123459</v>
+        <v>123456</v>
       </c>
       <c r="C5">
-        <v>4570</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>13800008892</v>
-      </c>
-      <c r="B6">
-        <v>123460</v>
-      </c>
-      <c r="C6">
-        <v>4571</v>
-      </c>
-      <c r="D6" t="s">
+        <v>8888</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>13800008893</v>
-      </c>
-      <c r="B7">
-        <v>123461</v>
-      </c>
-      <c r="C7">
-        <v>4572</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1107,28 +1083,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>14725803693</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>8888</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testcase/testcase.xlsx
+++ b/src/test/resources/testcase/testcase.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="6700" windowHeight="5220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:D5"/>
 </workbook>
 </file>
 
@@ -32,7 +33,7 @@
     <t>账号不存在!</t>
   </si>
   <si>
-    <t>密码错误!</t>
+    <t>密码错误</t>
   </si>
   <si>
     <t>验证码错误</t>
@@ -49,12 +50,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +70,102 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -76,34 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -112,30 +181,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -150,66 +213,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -222,6 +229,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -234,175 +319,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,30 +420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,11 +438,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +488,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -499,17 +497,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,141 +540,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -995,13 +1005,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="15.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="16.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1042,7 +1052,7 @@
       <c r="C3">
         <v>8888</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1061,7 +1071,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -1089,9 +1099,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.625"/>
+    <col min="1" max="1" width="12.6272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
